--- a/Document/Bug list.xlsx
+++ b/Document/Bug list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Github ERP\ERP\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BA35F3-D4BE-4B35-B0FE-97E38A17BF9D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9AFC0E-40E4-4BB5-87DE-D82F22642281}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BA0A163A-AE8A-4CBE-A74F-934770323FF5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="60">
   <si>
     <t>S.No.</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t>Open</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Will add on in future</t>
+  </si>
+  <si>
+    <t>Later</t>
   </si>
 </sst>
 </file>
@@ -280,12 +289,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900A6FBB-82C1-4336-8442-12641751EEFC}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -612,6 +621,7 @@
     <col min="3" max="3" width="76.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -639,10 +649,10 @@
       <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -650,7 +660,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -659,7 +669,7 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>43566</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -676,14 +686,14 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>43566</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -700,14 +710,14 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>43566</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -724,14 +734,14 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>43566</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -748,14 +758,14 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>43566</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -772,14 +782,14 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>43566</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -796,14 +806,14 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>43566</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -820,14 +830,14 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>43566</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -844,14 +854,14 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>43566</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -868,14 +878,14 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>43566</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -892,14 +902,14 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>43566</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -916,14 +926,14 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>43566</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -940,14 +950,14 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>43566</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -964,14 +974,14 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>43566</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -988,14 +998,14 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>43566</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1012,7 +1022,7 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1021,7 +1031,7 @@
       <c r="D17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>43566</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1038,14 +1048,14 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>43566</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1062,14 +1072,14 @@
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>43566</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1086,14 +1096,14 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>43566</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -1110,14 +1120,14 @@
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>43566</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -1134,14 +1144,14 @@
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>43566</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -1158,14 +1168,14 @@
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>43566</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -1182,14 +1192,14 @@
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>43566</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -1206,14 +1216,14 @@
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>43566</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -1230,14 +1240,14 @@
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>43566</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -1254,7 +1264,7 @@
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1263,7 +1273,7 @@
       <c r="D27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>43566</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -1280,14 +1290,14 @@
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>43566</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -1304,14 +1314,14 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>43566</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -1328,38 +1338,42 @@
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>43566</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="G30" s="3">
+        <v>43567</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>43566</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -1376,38 +1390,42 @@
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>43566</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="G32" s="3">
+        <v>43567</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>43566</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -1424,14 +1442,14 @@
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>43566</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -1448,103 +1466,123 @@
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>43566</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="G35" s="3">
+        <v>43567</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>43566</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="G36" s="3">
+        <v>43567</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>43566</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="G37" s="3">
+        <v>43567</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="J37" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="6"/>
       <c r="C38" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>43566</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="G38" s="3">
+        <v>43567</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="J38" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -1553,7 +1591,7 @@
       <c r="D39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>43566</v>
       </c>
       <c r="F39" s="2" t="s">
@@ -1570,48 +1608,56 @@
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="3"/>
+      <c r="B40" s="6"/>
       <c r="C40" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>43566</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="G40" s="3">
+        <v>43567</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="6"/>
       <c r="C41" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <v>43566</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="G41" s="3">
+        <v>43567</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Bug list.xlsx
+++ b/Document/Bug list.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Github ERP\ERP\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunil\Documents\GitHub\ERP\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9AFC0E-40E4-4BB5-87DE-D82F22642281}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BA0A163A-AE8A-4CBE-A74F-934770323FF5}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="70">
   <si>
     <t>S.No.</t>
   </si>
@@ -205,13 +204,43 @@
   </si>
   <si>
     <t>Later</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>it should be submit</t>
+  </si>
+  <si>
+    <t>*  button still not there on while adding record same will be derived in edit screen</t>
+  </si>
+  <si>
+    <t>Partially fixed</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>No need to add calendar there format mention with place holder</t>
+  </si>
+  <si>
+    <t>Issue is not clear</t>
+  </si>
+  <si>
+    <t>not clear</t>
+  </si>
+  <si>
+    <t>this is due to base data/master/Inventroy not updated we will updated once base data will deciede</t>
+  </si>
+  <si>
+    <t>need to change in database</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,8 +248,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +266,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -294,6 +336,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,23 +660,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900A6FBB-82C1-4336-8442-12641751EEFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +708,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -682,12 +734,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -701,17 +753,19 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="J3" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="39" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -725,12 +779,14 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -751,10 +807,10 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -773,12 +829,14 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J6" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -797,12 +855,14 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="J7" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -821,12 +881,14 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="J8" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -845,12 +907,14 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="J9" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -869,12 +933,14 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="J10" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -895,10 +961,10 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -922,7 +988,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -941,12 +1007,14 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="J13" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -967,10 +1035,10 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -994,7 +1062,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1018,7 +1086,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1044,7 +1112,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1068,7 +1136,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1092,7 +1160,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1116,7 +1184,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1140,7 +1208,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1164,7 +1232,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1188,7 +1256,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1212,7 +1280,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1236,7 +1304,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1260,7 +1328,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1286,7 +1354,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1310,7 +1378,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1334,7 +1402,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1362,7 +1430,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1386,7 +1454,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1414,7 +1482,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1438,7 +1506,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1462,7 +1530,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1490,7 +1558,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1518,7 +1586,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1548,7 +1616,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1578,7 +1646,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1604,7 +1672,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1632,7 +1700,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1668,5 +1736,6 @@
     <mergeCell ref="B39:B41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/Bug list.xlsx
+++ b/Document/Bug list.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunil\Documents\GitHub\ERP\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Github ERP\ERP\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B7F8B1-7F42-4CB6-B459-D6000AFDB1E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="73">
   <si>
     <t>S.No.</t>
   </si>
@@ -98,9 +99,6 @@
     <t>Employee-&gt;Edit -&gt;Email id is not bind(Due to edit data is not save).</t>
   </si>
   <si>
-    <t xml:space="preserve">Employee-&gt;Edit -&gt;Calender, Save and Update records are save msg are coming back side of the modal </t>
-  </si>
-  <si>
     <t>Employee-&gt;Add/Edit -&gt; Modal postioning is not fix</t>
   </si>
   <si>
@@ -234,12 +232,24 @@
   </si>
   <si>
     <t>need to change in database</t>
+  </si>
+  <si>
+    <t>ID return in place of section value from database</t>
+  </si>
+  <si>
+    <t>Id return in case of payment type nad month</t>
+  </si>
+  <si>
+    <t>Will fix in future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee-&gt;Edit -&gt;Calender, Save and Update records msg are coming back side of the modal </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -334,9 +344,6 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -346,6 +353,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,23 +670,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.26953125" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,29 +700,29 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -725,21 +735,21 @@
         <v>43566</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -749,23 +759,23 @@
         <v>43566</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -775,22 +785,22 @@
         <v>43566</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
@@ -801,20 +811,20 @@
         <v>43566</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
@@ -825,22 +835,22 @@
         <v>43566</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="10" t="s">
-        <v>65</v>
+      <c r="I6" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
@@ -851,22 +861,22 @@
         <v>43566</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
@@ -877,22 +887,22 @@
         <v>43566</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
@@ -903,22 +913,22 @@
         <v>43566</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
@@ -929,22 +939,22 @@
         <v>43566</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="10" t="s">
-        <v>68</v>
+      <c r="I10" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
@@ -955,20 +965,20 @@
         <v>43566</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
@@ -979,20 +989,20 @@
         <v>43566</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1003,22 +1013,22 @@
         <v>43566</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1029,22 +1039,22 @@
         <v>43566</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>4</v>
@@ -1053,22 +1063,22 @@
         <v>43566</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>4</v>
@@ -1077,21 +1087,21 @@
         <v>43566</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>26</v>
+      <c r="B17" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>19</v>
@@ -1103,20 +1113,20 @@
         <v>43566</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
@@ -1127,20 +1137,20 @@
         <v>43566</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1151,20 +1161,20 @@
         <v>43566</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1175,20 +1185,20 @@
         <v>43566</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1199,22 +1209,22 @@
         <v>43566</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>4</v>
@@ -1223,22 +1233,22 @@
         <v>43566</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>4</v>
@@ -1247,22 +1257,22 @@
         <v>43566</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>4</v>
@@ -1271,22 +1281,26 @@
         <v>43566</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="G24" s="3">
+        <v>43567</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>4</v>
@@ -1295,22 +1309,22 @@
         <v>43566</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>4</v>
@@ -1319,25 +1333,27 @@
         <v>43566</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="J26" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D27" s="2" t="s">
         <v>4</v>
       </c>
@@ -1345,22 +1361,26 @@
         <v>43566</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="G27" s="3">
+        <v>43567</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>4</v>
@@ -1369,22 +1389,26 @@
         <v>43566</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="G28" s="3">
+        <v>43567</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>4</v>
@@ -1393,22 +1417,26 @@
         <v>43566</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="G29" s="3">
+        <v>43567</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="6"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>4</v>
@@ -1417,26 +1445,26 @@
         <v>43566</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G30" s="3">
         <v>43567</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="6"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>4</v>
@@ -1445,22 +1473,26 @@
         <v>43566</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="G31" s="3">
+        <v>43567</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>4</v>
@@ -1469,26 +1501,26 @@
         <v>43566</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G32" s="3">
         <v>43567</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="6"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>4</v>
@@ -1497,22 +1529,28 @@
         <v>43566</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="G33" s="3">
+        <v>43567</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="J33" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="6"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>4</v>
@@ -1521,22 +1559,26 @@
         <v>43566</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="G34" s="3">
+        <v>43567</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="6"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>4</v>
@@ -1545,26 +1587,26 @@
         <v>43566</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G35" s="3">
         <v>43567</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="6"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>4</v>
@@ -1573,26 +1615,26 @@
         <v>43566</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G36" s="3">
         <v>43567</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="6"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>4</v>
@@ -1601,28 +1643,28 @@
         <v>43566</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G37" s="3">
         <v>43567</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="6"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>4</v>
@@ -1631,31 +1673,31 @@
         <v>43566</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G38" s="3">
         <v>43567</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D39" s="2" t="s">
         <v>4</v>
       </c>
@@ -1663,22 +1705,28 @@
         <v>43566</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="G39" s="3">
+        <v>43567</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="J39" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="6"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>4</v>
@@ -1687,26 +1735,26 @@
         <v>43566</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G40" s="3">
         <v>43567</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="6"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>4</v>
@@ -1715,17 +1763,37 @@
         <v>43566</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G41" s="3">
         <v>43567</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3">
+        <v>43566</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Bug list.xlsx
+++ b/Document/Bug list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Github ERP\ERP\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B7F8B1-7F42-4CB6-B459-D6000AFDB1E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCCFB30-258F-4668-BA48-5FDF4FB71F4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="75">
   <si>
     <t>S.No.</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Student-&gt;Add -&gt; Subject Details -&gt; Subjects are not bind</t>
   </si>
   <si>
-    <t>Student-&gt;Add -&gt;Academic Details -&gt; Course hit name is not correct.</t>
-  </si>
-  <si>
     <t>Student-&gt;Add -&gt; Transport/Hostel -&gt; Maximum DDL are not bind</t>
   </si>
   <si>
@@ -244,6 +241,15 @@
   </si>
   <si>
     <t xml:space="preserve">Employee-&gt;Edit -&gt;Calender, Save and Update records msg are coming back side of the modal </t>
+  </si>
+  <si>
+    <t>jata</t>
+  </si>
+  <si>
+    <t>Paritial fix</t>
+  </si>
+  <si>
+    <t>Student-&gt;Add -&gt;Academic Details -&gt; Course ddd name is not correct.</t>
   </si>
 </sst>
 </file>
@@ -673,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -700,22 +706,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -735,13 +741,13 @@
         <v>43566</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -759,15 +765,15 @@
         <v>43566</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
@@ -785,15 +791,15 @@
         <v>43566</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -811,13 +817,13 @@
         <v>43566</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
@@ -835,15 +841,15 @@
         <v>43566</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -861,15 +867,15 @@
         <v>43566</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -887,15 +893,15 @@
         <v>43566</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -904,7 +910,7 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>4</v>
@@ -913,15 +919,19 @@
         <v>43566</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="G9" s="3">
+        <v>43569</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="I9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
@@ -930,7 +940,7 @@
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>4</v>
@@ -939,15 +949,15 @@
         <v>43566</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -956,7 +966,7 @@
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>4</v>
@@ -965,13 +975,13 @@
         <v>43566</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -980,7 +990,7 @@
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>4</v>
@@ -989,10 +999,14 @@
         <v>43566</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="G12" s="3">
+        <v>43569</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
         <v>55</v>
@@ -1004,7 +1018,7 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>4</v>
@@ -1013,15 +1027,15 @@
         <v>43566</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -1030,7 +1044,7 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>4</v>
@@ -1039,13 +1053,17 @@
         <v>43566</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="G14" s="3">
+        <v>43569</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -1054,7 +1072,7 @@
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>4</v>
@@ -1063,13 +1081,17 @@
         <v>43566</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="G15" s="3">
+        <v>43569</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1078,7 +1100,7 @@
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>4</v>
@@ -1087,13 +1109,15 @@
         <v>43566</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="J16" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -1101,10 +1125,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>4</v>
@@ -1113,13 +1137,13 @@
         <v>43566</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -1128,7 +1152,7 @@
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>4</v>
@@ -1137,10 +1161,14 @@
         <v>43566</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="G18" s="3">
+        <v>43569</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
         <v>55</v>
@@ -1152,7 +1180,7 @@
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>4</v>
@@ -1161,11 +1189,17 @@
         <v>43566</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="G19" s="3">
+        <v>43569</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="J19" s="2" t="s">
         <v>55</v>
       </c>
@@ -1176,7 +1210,7 @@
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>4</v>
@@ -1185,10 +1219,14 @@
         <v>43566</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="G20" s="3">
+        <v>43569</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
         <v>55</v>
@@ -1200,7 +1238,7 @@
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>4</v>
@@ -1209,10 +1247,14 @@
         <v>43566</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="G21" s="3">
+        <v>43569</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
         <v>55</v>
@@ -1224,19 +1266,23 @@
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>43566</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="3">
+        <v>43569</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3">
-        <v>43566</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
         <v>55</v>
@@ -1248,7 +1294,7 @@
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>4</v>
@@ -1257,13 +1303,13 @@
         <v>43566</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -1272,7 +1318,7 @@
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>4</v>
@@ -1281,17 +1327,17 @@
         <v>43566</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G24" s="3">
         <v>43567</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -1300,7 +1346,7 @@
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>4</v>
@@ -1309,13 +1355,15 @@
         <v>43566</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="J25" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -1324,7 +1372,7 @@
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>4</v>
@@ -1333,15 +1381,15 @@
         <v>43566</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -1349,11 +1397,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="D27" s="2" t="s">
         <v>4</v>
       </c>
@@ -1361,17 +1409,17 @@
         <v>43566</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" s="3">
         <v>43567</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -1380,7 +1428,7 @@
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>4</v>
@@ -1389,17 +1437,17 @@
         <v>43566</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="3">
         <v>43567</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -1408,7 +1456,7 @@
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>4</v>
@@ -1417,17 +1465,17 @@
         <v>43566</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G29" s="3">
         <v>43567</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -1436,7 +1484,7 @@
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>4</v>
@@ -1445,17 +1493,17 @@
         <v>43566</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30" s="3">
         <v>43567</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -1464,7 +1512,7 @@
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>4</v>
@@ -1473,17 +1521,17 @@
         <v>43566</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G31" s="3">
         <v>43567</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
@@ -1492,7 +1540,7 @@
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>4</v>
@@ -1501,17 +1549,17 @@
         <v>43566</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G32" s="3">
         <v>43567</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
@@ -1520,7 +1568,7 @@
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>4</v>
@@ -1529,19 +1577,19 @@
         <v>43566</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="3">
         <v>43567</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
@@ -1550,7 +1598,7 @@
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>4</v>
@@ -1559,17 +1607,17 @@
         <v>43566</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G34" s="3">
         <v>43567</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
@@ -1578,7 +1626,7 @@
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>4</v>
@@ -1587,17 +1635,17 @@
         <v>43566</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G35" s="3">
         <v>43567</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
@@ -1606,7 +1654,7 @@
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>4</v>
@@ -1615,17 +1663,17 @@
         <v>43566</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G36" s="3">
         <v>43567</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
@@ -1634,7 +1682,7 @@
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>4</v>
@@ -1643,19 +1691,19 @@
         <v>43566</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G37" s="3">
         <v>43567</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
@@ -1664,7 +1712,7 @@
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>4</v>
@@ -1673,19 +1721,19 @@
         <v>43566</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" s="3">
         <v>43567</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -1693,11 +1741,11 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D39" s="2" t="s">
         <v>4</v>
       </c>
@@ -1705,19 +1753,19 @@
         <v>43566</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G39" s="3">
         <v>43567</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
@@ -1726,7 +1774,7 @@
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>4</v>
@@ -1735,17 +1783,17 @@
         <v>43566</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G40" s="3">
         <v>43567</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
@@ -1754,7 +1802,7 @@
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>4</v>
@@ -1763,22 +1811,22 @@
         <v>43566</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G41" s="3">
         <v>43567</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C42" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>4</v>
@@ -1787,13 +1835,13 @@
         <v>43566</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Bug list.xlsx
+++ b/Document/Bug list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Github ERP\ERP\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCCFB30-258F-4668-BA48-5FDF4FB71F4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E287D0E-84F8-4050-8F19-AFF9CB7FEB58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="76">
   <si>
     <t>S.No.</t>
   </si>
@@ -228,9 +228,6 @@
     <t>this is due to base data/master/Inventroy not updated we will updated once base data will deciede</t>
   </si>
   <si>
-    <t>need to change in database</t>
-  </si>
-  <si>
     <t>ID return in place of section value from database</t>
   </si>
   <si>
@@ -250,6 +247,12 @@
   </si>
   <si>
     <t>Student-&gt;Add -&gt;Academic Details -&gt; Course ddd name is not correct.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student-&gt;Add-&gt; Role should be bind from MST_ROLE table. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee-&gt;Add-&gt; Role should be bind from MST_ROLE table. </t>
   </si>
 </sst>
 </file>
@@ -677,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -898,10 +901,10 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -910,7 +913,7 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>4</v>
@@ -925,7 +928,7 @@
         <v>43569</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>65</v>
@@ -1005,7 +1008,7 @@
         <v>43569</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
@@ -1029,13 +1032,15 @@
       <c r="F13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="G13" s="3">
+        <v>43569</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -1059,7 +1064,7 @@
         <v>43569</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
@@ -1087,7 +1092,7 @@
         <v>43569</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
@@ -1114,7 +1119,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>57</v>
@@ -1122,13 +1127,11 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>24</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B17" s="10"/>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>4</v>
@@ -1148,11 +1151,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>4</v>
@@ -1167,7 +1172,7 @@
         <v>43569</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
@@ -1176,11 +1181,11 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>4</v>
@@ -1195,22 +1200,20 @@
         <v>43569</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>4</v>
@@ -1225,20 +1228,22 @@
         <v>43569</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>4</v>
@@ -1253,7 +1258,7 @@
         <v>43569</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
@@ -1262,11 +1267,11 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="2" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>4</v>
@@ -1281,7 +1286,7 @@
         <v>43569</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
@@ -1290,11 +1295,11 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="2" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>4</v>
@@ -1305,20 +1310,24 @@
       <c r="F23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="G23" s="3">
+        <v>43569</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>4</v>
@@ -1329,12 +1338,8 @@
       <c r="F24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="3">
-        <v>43567</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
         <v>54</v>
@@ -1342,11 +1347,11 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>4</v>
@@ -1357,22 +1362,24 @@
       <c r="F25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="G25" s="3">
+        <v>43567</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>4</v>
@@ -1386,7 +1393,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>57</v>
@@ -1394,13 +1401,11 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>30</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B27" s="10"/>
       <c r="C27" s="2" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>4</v>
@@ -1411,24 +1416,20 @@
       <c r="F27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="3">
-        <v>43567</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>4</v>
@@ -1439,24 +1440,24 @@
       <c r="F28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="3">
-        <v>43567</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="J28" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="C29" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>4</v>
@@ -1480,11 +1481,11 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>4</v>
@@ -1508,11 +1509,11 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>4</v>
@@ -1536,11 +1537,11 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>4</v>
@@ -1564,11 +1565,11 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>4</v>
@@ -1585,20 +1586,18 @@
       <c r="H33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>4</v>
@@ -1622,11 +1621,11 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>4</v>
@@ -1643,18 +1642,20 @@
       <c r="H35" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I35" s="2"/>
+      <c r="I35" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="J35" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>4</v>
@@ -1678,11 +1679,11 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>4</v>
@@ -1699,20 +1700,18 @@
       <c r="H37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>4</v>
@@ -1729,22 +1728,18 @@
       <c r="H38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B39" s="10"/>
       <c r="C39" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>4</v>
@@ -1762,19 +1757,19 @@
         <v>49</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>4</v>
@@ -1791,18 +1786,22 @@
       <c r="H40" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I40" s="2"/>
+      <c r="I40" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="J40" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="C41" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>4</v>
@@ -1819,14 +1818,20 @@
       <c r="H41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I41" s="2"/>
+      <c r="I41" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="J41" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>39</v>
+      </c>
+      <c r="B42" s="10"/>
       <c r="C42" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>4</v>
@@ -1837,19 +1842,71 @@
       <c r="F42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="G42" s="3">
+        <v>43567</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>40</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3">
+        <v>43566</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="3">
+        <v>43567</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3">
+        <v>43566</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B2:B16"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="B27:B38"/>
-    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="B18:B28"/>
+    <mergeCell ref="B29:B40"/>
+    <mergeCell ref="B41:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Document/Bug list.xlsx
+++ b/Document/Bug list.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Github ERP\ERP\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunil\Documents\GitHub\ERP\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E287D0E-84F8-4050-8F19-AFF9CB7FEB58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="77">
   <si>
     <t>S.No.</t>
   </si>
@@ -253,13 +252,16 @@
   </si>
   <si>
     <t xml:space="preserve">Employee-&gt;Add-&gt; Role should be bind from MST_ROLE table. </t>
+  </si>
+  <si>
+    <t>fxied</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +272,19 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -346,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -366,6 +381,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,23 +697,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.26953125" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,14 +745,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -750,10 +768,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -779,7 +797,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="39" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -805,7 +823,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -829,7 +847,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -855,7 +873,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -881,38 +899,38 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>43566</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
+      <c r="D8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12">
+        <v>43566</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -937,7 +955,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -963,7 +981,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -987,7 +1005,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1015,7 +1033,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1043,7 +1061,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1071,7 +1089,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1099,7 +1117,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1125,12 +1143,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1149,7 +1167,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1179,7 +1197,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1207,12 +1225,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1237,7 +1255,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1265,7 +1283,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1293,7 +1311,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1321,36 +1339,36 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3">
-        <v>43566</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2" t="s">
+      <c r="D24" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="12">
+        <v>43566</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1373,7 +1391,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1399,7 +1417,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>15</v>
       </c>
@@ -1423,7 +1441,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -1449,14 +1467,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1479,12 +1497,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -1507,12 +1525,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -1535,12 +1553,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -1563,12 +1581,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1591,12 +1609,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -1619,12 +1637,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -1649,12 +1667,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
       <c r="B36" s="10"/>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1677,12 +1695,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
       <c r="B37" s="10"/>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -1705,12 +1723,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
       <c r="B38" s="10"/>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -1733,12 +1751,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
       <c r="B39" s="10"/>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -1763,12 +1781,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
       <c r="B40" s="10"/>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -1793,7 +1811,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -1825,7 +1843,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -1853,7 +1871,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -1881,7 +1899,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
         <v>35</v>
       </c>
